--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="2790" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1574,11 +1574,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="358509096"/>
-        <c:axId val="358509488"/>
+        <c:axId val="370456280"/>
+        <c:axId val="370456672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="358509096"/>
+        <c:axId val="370456280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -1611,6 +1611,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Correct Guesses per</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> 52 Cards</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1641,13 +1700,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358509488"/>
+        <c:crossAx val="370456672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="358509488"/>
+        <c:axId val="370456672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.13"/>
@@ -1680,6 +1739,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="75000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Probability of Outcome</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="0.00%" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1710,7 +1823,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="358509096"/>
+        <c:crossAx val="370456280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -2389,13 +2502,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
+      <xdr:colOff>600076</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:colOff>28576</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -2685,7 +2798,7 @@
   <dimension ref="A1:P54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="2790" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="3720" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="6">
   <si>
     <t>Blind</t>
   </si>
@@ -37,12 +37,18 @@
   <si>
     <t>Depreciation</t>
   </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -50,18 +56,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -71,14 +116,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9933"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1566,6 +1621,752 @@
           </c:yVal>
           <c:smooth val="1"/>
         </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>Blind Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent5">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31961823834617281"/>
+                  <c:y val="-0.35815612837329769"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:xfrm>
+                  <a:off x="967642" y="1584399"/>
+                  <a:ext cx="666018" cy="407944"/>
+                </a:xfrm>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="15000"/>
+                          <a:lumOff val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 192607"/>
+                        <a:gd name="adj2" fmla="val 208971"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12508615874544604"/>
+                      <c:h val="9.2629723747619297E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="15000"/>
+                        <a:lumOff val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$U$32,Sheet1!$U$32)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.031599999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.031599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Basic Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FF9933"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent6">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.14669054633377862"/>
+                  <c:y val="-0.57978739593103146"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:xfrm>
+                  <a:off x="3934382" y="758899"/>
+                  <a:ext cx="705528" cy="395244"/>
+                </a:xfrm>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="15000"/>
+                          <a:lumOff val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -173960"/>
+                        <a:gd name="adj2" fmla="val 301215"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13250661004260703"/>
+                      <c:h val="0.11036022515223799"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="15000"/>
+                        <a:lumOff val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$U$33,Sheet1!$U$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.706099999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.706099999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>Depr. Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.28503285019327729"/>
+                  <c:y val="-0.53900724270040845"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:xfrm>
+                  <a:off x="1224381" y="923999"/>
+                  <a:ext cx="643456" cy="357144"/>
+                </a:xfrm>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="15000"/>
+                          <a:lumOff val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val 173102"/>
+                        <a:gd name="adj2" fmla="val 187819"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.12800438127785016"/>
+                      <c:h val="9.9721924309466775E-2"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="15000"/>
+                        <a:lumOff val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$U$34,Sheet1!$U$34)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>13.5381</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.5381</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:v>Hybrid Mean</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="22225" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:prstDash val="sysDash"/>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.18127612229865336"/>
+                  <c:y val="-0.32092207542359846"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:spPr>
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                  <a:noAutofit/>
+                </a:bodyPr>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="lt1">
+                          <a:lumMod val="15000"/>
+                          <a:lumOff val="85000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <a:prstGeom prst="wedgeRectCallout">
+                      <a:avLst>
+                        <a:gd name="adj1" fmla="val -197193"/>
+                        <a:gd name="adj2" fmla="val 295853"/>
+                      </a:avLst>
+                    </a:prstGeom>
+                    <a:noFill/>
+                    <a:ln>
+                      <a:noFill/>
+                    </a:ln>
+                  </c15:spPr>
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.13449084360257935"/>
+                      <c:h val="0.10004917072909218"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="15000"/>
+                        <a:lumOff val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:spPr xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <a:prstGeom prst="wedgeRectCallout">
+                    <a:avLst/>
+                  </a:prstGeom>
+                  <a:noFill/>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                </c15:spPr>
+                <c15:layout/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>(Sheet1!$U$35,Sheet1!$U$35)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>15.9918</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>15.9918</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="2"/>
+              <c:pt idx="0">
+                <c:v>0</c:v>
+              </c:pt>
+              <c:pt idx="1">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -1574,11 +2375,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="370456280"/>
-        <c:axId val="370456672"/>
+        <c:axId val="192607392"/>
+        <c:axId val="192306344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="370456280"/>
+        <c:axId val="192607392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -1700,13 +2501,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370456672"/>
+        <c:crossAx val="192306344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="370456672"/>
+        <c:axId val="192306344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.13"/>
@@ -1823,7 +2624,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="370456280"/>
+        <c:crossAx val="192607392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -1839,6 +2640,22 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
+      <c:legendEntry>
+        <c:idx val="4"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="5"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="6"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
+      <c:legendEntry>
+        <c:idx val="7"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2507,8 +3324,8 @@
       <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>28576</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
       <xdr:row>28</xdr:row>
       <xdr:rowOff>161924</xdr:rowOff>
     </xdr:to>
@@ -2795,10 +3612,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P54"/>
+  <dimension ref="A1:U54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="T4" sqref="T4"/>
+    <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,6 +3625,7 @@
     <col min="5" max="5" width="1.85546875" customWidth="1"/>
     <col min="9" max="9" width="2" customWidth="1"/>
     <col min="13" max="13" width="2" customWidth="1"/>
+    <col min="20" max="20" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
@@ -3499,7 +4317,7 @@
         <v>26631</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3544,7 +4362,7 @@
         <v>26569</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3589,7 +4407,7 @@
         <v>26927</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3634,7 +4452,7 @@
         <v>26454</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3679,7 +4497,7 @@
         <v>26939</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3724,7 +4542,7 @@
         <v>26662</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3769,7 +4587,7 @@
         <v>26908</v>
       </c>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3814,7 +4632,7 @@
         <v>26674</v>
       </c>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3859,7 +4677,7 @@
         <v>26891</v>
       </c>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3904,7 +4722,7 @@
         <v>27308</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3949,7 +4767,7 @@
         <v>27189</v>
       </c>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3994,7 +4812,7 @@
         <v>27258</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -4039,7 +4857,7 @@
         <v>27218</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4084,7 +4902,7 @@
         <v>27278</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4129,7 +4947,7 @@
         <v>27468</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4173,8 +4991,14 @@
       <c r="P31">
         <v>27581</v>
       </c>
+      <c r="T31" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4218,8 +5042,14 @@
       <c r="P32">
         <v>27563</v>
       </c>
+      <c r="T32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U32" s="2">
+        <v>13.031599999999999</v>
+      </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4263,8 +5093,14 @@
       <c r="P33">
         <v>27955</v>
       </c>
+      <c r="T33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U33" s="2">
+        <v>15.706099999999999</v>
+      </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4308,8 +5144,14 @@
       <c r="P34">
         <v>28121</v>
       </c>
+      <c r="T34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U34" s="2">
+        <v>13.5381</v>
+      </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4353,8 +5195,14 @@
       <c r="P35">
         <v>28098</v>
       </c>
+      <c r="T35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U35" s="2">
+        <v>15.9918</v>
+      </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4399,7 +5247,7 @@
         <v>28576</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4444,7 +5292,7 @@
         <v>28703</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4489,7 +5337,7 @@
         <v>28673</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4534,7 +5382,7 @@
         <v>28946</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4579,7 +5427,7 @@
         <v>29637</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4624,7 +5472,7 @@
         <v>29503</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4669,7 +5517,7 @@
         <v>30623</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4714,7 +5562,7 @@
         <v>31034</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4759,7 +5607,7 @@
         <v>31529</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4804,7 +5652,7 @@
         <v>31958</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4849,7 +5697,7 @@
         <v>33230</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4894,7 +5742,7 @@
         <v>34170</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -5184,6 +6032,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Results.xlsx
+++ b/Results.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3720" yWindow="0" windowWidth="23040" windowHeight="9675"/>
+    <workbookView xWindow="4650" yWindow="0" windowWidth="23040" windowHeight="9675"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1636,9 +1636,8 @@
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent5">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
             </a:effectLst>
@@ -1774,7 +1773,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -1823,9 +1821,8 @@
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent6">
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
             </a:effectLst>
@@ -1961,7 +1958,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2010,10 +2006,8 @@
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
             </a:effectLst>
@@ -2149,7 +2143,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2198,10 +2191,8 @@
             </a:ln>
             <a:effectLst>
               <a:glow rad="139700">
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                  <a:satMod val="175000"/>
-                  <a:alpha val="14000"/>
+                <a:schemeClr val="tx1">
+                  <a:alpha val="10000"/>
                 </a:schemeClr>
               </a:glow>
             </a:effectLst>
@@ -2333,7 +2324,6 @@
                     <a:noFill/>
                   </a:ln>
                 </c15:spPr>
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -2375,11 +2365,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="192607392"/>
-        <c:axId val="192306344"/>
+        <c:axId val="216090040"/>
+        <c:axId val="216090424"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="192607392"/>
+        <c:axId val="216090040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="27"/>
@@ -2501,13 +2491,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192306344"/>
+        <c:crossAx val="216090424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="192306344"/>
+        <c:axId val="216090424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="0.13"/>
@@ -2624,7 +2614,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="192607392"/>
+        <c:crossAx val="216090040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0000000000000002E-2"/>
@@ -3615,7 +3605,7 @@
   <dimension ref="A1:U54"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
